--- a/Output/BD_version_1.xlsx
+++ b/Output/BD_version_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Pycharm projects\Polyakov\3BR-base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Desktop\Github\3BR-base\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2448B1-AC6A-4CB3-8447-080F5D5C7AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F8113B-AC58-4752-9BB4-98EBD8DF79E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22890" yWindow="4740" windowWidth="11565" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
-    <t>Н_СОТР</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
-    <t>ГОР</t>
-  </si>
-  <si>
-    <t>Н_ТЕЛ</t>
-  </si>
-  <si>
-    <t>СПЕЦ</t>
-  </si>
-  <si>
-    <t>ЗП_ЧАС</t>
-  </si>
-  <si>
-    <t>ЧАС</t>
-  </si>
-  <si>
     <t>Москва</t>
   </si>
   <si>
@@ -124,6 +106,24 @@
   </si>
   <si>
     <t>Петров Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Номер сотрудника</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Специальность</t>
+  </si>
+  <si>
+    <t>Часы</t>
+  </si>
+  <si>
+    <t>Зарплата в час</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,54 +444,54 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>40</v>
@@ -500,21 +500,21 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -523,21 +523,21 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -546,21 +546,21 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>40</v>
@@ -569,21 +569,21 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
       <c r="F6">
         <v>40</v>
@@ -592,21 +592,21 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -615,21 +615,21 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -638,21 +638,21 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -661,21 +661,21 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -684,21 +684,21 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>30</v>
